--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keysha\Documents\GitHub\Gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared Rutherford\Gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>TIME</t>
   </si>
@@ -142,11 +142,14 @@
   <si>
     <t>Oct 18th - 12:30 PM- 2:00 PM</t>
   </si>
+  <si>
+    <t>Oct 16th - 9:30 to 11:50; 17th - 10 to 11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -234,19 +237,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,11 +634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,118 +646,120 @@
     <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.375" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared Rutherford\Gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>TIME</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>Oct 16th - 9:30 to 11:50; 17th - 10 to 11</t>
+  </si>
+  <si>
+    <t>Oct 16th - 6 to 7
+Oct 18th - 7 to 12</t>
   </si>
 </sst>
 </file>
@@ -235,12 +239,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,6 +258,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,26 +665,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -686,10 +699,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -702,75 +715,148 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UM\Gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>TIME</t>
   </si>
@@ -149,11 +149,26 @@
     <t>Oct 16th - 6 to 7
 Oct 18th - 7 to 12</t>
   </si>
+  <si>
+    <t>Sprint 1 Notes</t>
+  </si>
+  <si>
+    <t>Powerpoint, UML, Backend, and Code integegration</t>
+  </si>
+  <si>
+    <t>Initial Screen</t>
+  </si>
+  <si>
+    <t>Login Screen</t>
+  </si>
+  <si>
+    <t>Configuration Integration and Testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -211,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -234,12 +249,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,20 +274,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -647,44 +680,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="26.59765625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="44.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" customWidth="1"/>
+    <col min="5" max="5" width="37.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,11 +732,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -714,7 +748,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="3">
@@ -728,11 +762,11 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -744,7 +778,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3">
@@ -758,11 +792,11 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
@@ -774,7 +808,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3">
@@ -788,11 +822,11 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
@@ -800,7 +834,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="3">
@@ -810,12 +844,12 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -828,9 +862,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="3">
         <v>6</v>
       </c>
@@ -844,13 +878,27 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="13">
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -858,6 +906,11 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UM\Gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared Rutherford\Gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>TIME</t>
   </si>
@@ -164,11 +164,23 @@
   <si>
     <t>Configuration Integration and Testing</t>
   </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 2 Notes</t>
+  </si>
+  <si>
+    <t>Oct 29th - 2:30 - 3:00, 9:55 - 10:30; 31st - 1:00 - 4:05</t>
+  </si>
+  <si>
+    <t>Small improvements to Login Screen, Save/Load</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -263,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,25 +289,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,45 +701,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.59765625" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="44.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.8984375" customWidth="1"/>
-    <col min="5" max="5" width="37.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -732,11 +753,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -748,9 +769,9 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+    <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3">
         <v>2.5</v>
       </c>
@@ -762,11 +783,11 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -778,9 +799,9 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -792,11 +813,11 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
@@ -808,9 +829,9 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3">
         <v>2</v>
       </c>
@@ -822,11 +843,11 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
@@ -834,9 +855,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3">
         <v>0.5</v>
       </c>
@@ -844,11 +865,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
@@ -862,9 +883,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3">
         <v>6</v>
       </c>
@@ -878,26 +899,54 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="E17" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared Rutherford\Gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keysha\Documents\GitHub\Gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>TIME</t>
   </si>
@@ -176,12 +176,18 @@
   <si>
     <t>Small improvements to Login Screen, Save/Load</t>
   </si>
+  <si>
+    <t>Oct 30th - 8 PM - 9 PM; Nov 2nd - 11:30PM - 2 AM, 11 AM - 12 PM</t>
+  </si>
+  <si>
+    <t>User guide, Benefits calculator, Input validation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -204,6 +210,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -275,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,29 +307,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,11 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -720,26 +738,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -754,10 +772,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -770,8 +788,8 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3">
         <v>2.5</v>
       </c>
@@ -784,10 +802,10 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -800,8 +818,8 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -814,10 +832,10 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
@@ -830,8 +848,8 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3">
         <v>2</v>
       </c>
@@ -844,10 +862,10 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
@@ -856,8 +874,8 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3">
         <v>0.5</v>
       </c>
@@ -866,10 +884,10 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
@@ -884,8 +902,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3">
         <v>6</v>
       </c>
@@ -900,10 +918,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
@@ -918,39 +936,41 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="E15" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="F15" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="E16" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="F16" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="E17" s="14" t="s">
+      <c r="B17" s="15"/>
+      <c r="E17" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -960,8 +980,15 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UM\Gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>TIME</t>
   </si>
@@ -164,12 +164,36 @@
   <si>
     <t>Configuration Integration and Testing</t>
   </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 2 Notes</t>
+  </si>
+  <si>
+    <t>Oct 29th - 2:30 - 3:00, 9:55 - 10:30; 31st - 1:00 - 4:05</t>
+  </si>
+  <si>
+    <t>Small improvements to Login Screen, Save/Load</t>
+  </si>
+  <si>
+    <t>Oct 30th - 8 PM - 9 PM; Nov 2nd - 11:30PM - 2 AM, 11 AM - 12 PM</t>
+  </si>
+  <si>
+    <t>User guide, Benefits calculator, Input validation</t>
+  </si>
+  <si>
+    <t>Powerpoint, backend, integration, MCV</t>
+  </si>
+  <si>
+    <t>November 1, 7 - 12, 4 - 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -192,6 +216,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -263,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +307,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,17 +334,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,45 +725,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.59765625" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="44.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.8984375" customWidth="1"/>
-    <col min="5" max="5" width="37.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -732,11 +777,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -748,9 +793,9 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+    <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3">
         <v>2.5</v>
       </c>
@@ -762,11 +807,11 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -778,9 +823,9 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -792,11 +837,11 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
@@ -808,9 +853,9 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3">
         <v>2</v>
       </c>
@@ -822,11 +867,11 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
@@ -834,9 +879,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3">
         <v>0.5</v>
       </c>
@@ -844,11 +889,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
@@ -862,9 +907,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3">
         <v>6</v>
       </c>
@@ -878,26 +923,72 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
@@ -913,6 +1004,6 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abrown/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared Rutherford\Gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23960" windowHeight="13800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="13800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>TIME</t>
   </si>
@@ -197,11 +197,20 @@
   <si>
     <t>Integrating code, save/load transactions, pulling model through controller from view classes</t>
   </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 3 Notes</t>
+  </si>
+  <si>
+    <t>Save and Load functionality, Testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -296,58 +305,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -427,6 +445,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -694,286 +715,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="44.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
     <col min="5" max="5" width="44.5" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="9" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="1">
         <v>2.5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="1">
         <v>1.5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="1">
         <v>2.5</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="1">
         <v>1.5</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="1">
         <v>1.5</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="1">
         <v>0.5</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="1">
         <v>7</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="1">
         <v>3.25</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="12"/>
+      <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="13">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="6">
         <v>5.5</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="6">
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="11"/>
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="10" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="E19" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="E20" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -207,7 +207,7 @@
     <t>Save and Load functionality, Testing</t>
   </si>
   <si>
-    <t>Implementation of singleton, testing.</t>
+    <t>Implementation of singleton, mvc work, testing.</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1030,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="20">
         <v>8</v>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keysha\Documents\GitHub\Gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>TIME</t>
   </si>
@@ -209,11 +209,17 @@
   <si>
     <t>Implementation of singleton, mvc work, testing.</t>
   </si>
+  <si>
+    <t>Nov 12th - 7 PM - 10 PM; Nov 13th 11 PM - 12 AM</t>
+  </si>
+  <si>
+    <t>Updated user guide &amp; input sanitization, added logo, started implementing code functionality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -308,70 +314,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -755,11 +770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -774,288 +789,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="10">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="1">
         <v>2.5</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="1">
         <v>1.5</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="1">
         <v>2.5</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="1">
         <v>1.5</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="1">
         <v>1.5</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="1">
         <v>0.5</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="1">
         <v>7</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="1">
         <v>3.25</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="D15" s="15" t="s">
+      <c r="B15" s="14"/>
+      <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="6">
         <v>5.5</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="6">
         <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="13"/>
       <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="D18" s="15" t="s">
+      <c r="B18" s="14"/>
+      <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="F18" s="22" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="23">
         <v>3</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="11">
         <v>8</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="F19" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="12" t="s">
         <v>42</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
@@ -1065,16 +1099,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keysha\Documents\GitHub\Gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27060" windowHeight="11220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>TIME</t>
   </si>
@@ -215,11 +215,20 @@
   <si>
     <t>Updated user guide &amp; input sanitization, added logo, started implementing code functionality</t>
   </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 4 Notes</t>
+  </si>
+  <si>
+    <t>Added printing functionality, made presentation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -352,6 +361,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,18 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -770,11 +779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -789,26 +798,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -823,10 +832,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -839,8 +848,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1">
         <v>2.5</v>
       </c>
@@ -853,10 +862,10 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -869,8 +878,8 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -883,10 +892,10 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -899,8 +908,8 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="1">
         <v>2</v>
       </c>
@@ -913,10 +922,10 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
@@ -925,8 +934,8 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1">
         <v>0.5</v>
       </c>
@@ -935,10 +944,10 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
@@ -953,8 +962,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1">
         <v>6</v>
       </c>
@@ -969,10 +978,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
@@ -987,10 +996,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="18"/>
       <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
@@ -1002,8 +1011,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="6">
         <v>5.5</v>
       </c>
@@ -1015,10 +1024,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="17"/>
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1033,21 +1042,21 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="18"/>
       <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="23">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15">
         <v>3</v>
       </c>
       <c r="D19" s="11">
@@ -1056,26 +1065,42 @@
       <c r="E19" s="12">
         <v>6</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="16" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared Rutherford\Gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>TIME</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Added printing functionality, made presentation</t>
+  </si>
+  <si>
+    <t>Finished changes made check, encryption</t>
   </si>
 </sst>
 </file>
@@ -373,28 +376,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -798,26 +801,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -832,10 +835,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -848,8 +851,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="1">
         <v>2.5</v>
       </c>
@@ -862,10 +865,10 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -878,8 +881,8 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -892,10 +895,10 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -908,8 +911,8 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="1">
         <v>2</v>
       </c>
@@ -922,10 +925,10 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
@@ -934,8 +937,8 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="1">
         <v>0.5</v>
       </c>
@@ -944,10 +947,10 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
@@ -962,8 +965,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1">
         <v>6</v>
       </c>
@@ -978,10 +981,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
@@ -996,10 +999,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
@@ -1011,8 +1014,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="6">
         <v>5.5</v>
       </c>
@@ -1024,10 +1027,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="21"/>
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1042,10 +1045,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
@@ -1054,8 +1057,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="15">
         <v>3</v>
       </c>
@@ -1070,10 +1073,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
@@ -1094,6 +1097,9 @@
       <c r="C22" s="15">
         <v>3</v>
       </c>
+      <c r="E22" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1102,19 +1108,12 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
+      <c r="E23" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
@@ -1124,6 +1123,16 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared Rutherford\Gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keysha\Documents\GitHub\Gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27060" windowHeight="11220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27060" windowHeight="11220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>TIME</t>
   </si>
@@ -227,11 +227,17 @@
   <si>
     <t>Finished changes made check, encryption</t>
   </si>
+  <si>
+    <t>Nov 26th - 4 PM - 6 PM; Nov 27th 2 PM - 3 PM; 6 PM - 8 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functionality for new expense/deposit codes, software documentation </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -376,28 +382,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,11 +788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -801,26 +807,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -835,10 +841,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -851,8 +857,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1">
         <v>2.5</v>
       </c>
@@ -865,10 +871,10 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -881,8 +887,8 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -895,10 +901,10 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
@@ -911,8 +917,8 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="1">
         <v>2</v>
       </c>
@@ -925,10 +931,10 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
@@ -937,8 +943,8 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1">
         <v>0.5</v>
       </c>
@@ -947,10 +953,10 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
@@ -965,8 +971,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1">
         <v>6</v>
       </c>
@@ -981,10 +987,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
@@ -999,10 +1005,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
@@ -1014,8 +1020,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="6">
         <v>5.5</v>
       </c>
@@ -1027,10 +1033,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="17"/>
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1045,10 +1051,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="18"/>
       <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
@@ -1057,8 +1063,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="15">
         <v>3</v>
       </c>
@@ -1073,10 +1079,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
@@ -1090,8 +1096,13 @@
         <v>45</v>
       </c>
     </row>
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F21" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="15">
@@ -1100,9 +1111,12 @@
       <c r="E22" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F22" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="s">
@@ -1111,9 +1125,22 @@
       <c r="E23" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="F23" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
@@ -1123,16 +1150,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
